--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_16.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,189 +505,223 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731412965.1992471</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731412965.238631</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412965.1992471.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412965.238631.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.08</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.26</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731412965.2888224</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731412966.0207572</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412965.2888224.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412966.0207572.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.29</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731412969.2075064</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731412970.577424</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412969.2075064.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412970.577424.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.89</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.89</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,195 +729,231 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731412973.7263713</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731412973.986855</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412973.7263713.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412973.986855.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.23</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.05</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731412977.1209013</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731412977.1587715</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412977.1209013.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412977.1587715.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.08</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.26</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731412977.197788</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731412977.9078655</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412977.197788.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412977.9078655.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.29</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731412980.4679983</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731412981.5861874</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412980.4679983.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412981.5861874.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.89</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.89</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,1437 +961,1707 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731412984.2387466</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731412984.4596522</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412984.2387466.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412984.4596522.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.23</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.05</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731412987.360959</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731412987.4646246</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412987.360959.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412987.4646246.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.43</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.74</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731412987.6862092</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731412988.2559743</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412987.6862092.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412988.2559743.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>277.93</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.84</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.09000000000003183</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731412988.6748147</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731412989.2267492</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412988.6748147.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412989.2267492.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.93</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731412991.766569</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731412993.1852288</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412991.766569.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412993.1852288.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.38</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.37</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731412995.2101738</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731412995.9887638</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412995.2101738.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412995.9887638.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.06</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.22</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731412996.785631</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731412996.785631.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731412996.785631.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.43</v>
       </c>
-      <c r="J16" t="n">
-        <v>278.43</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>278.65</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.2199999999999704</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731412999.7941535</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731413000.5686917</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412999.7941535.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413000.5686917.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.29</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.51</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731413002.8330846</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731413004.5876987</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413002.8330846.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413004.5876987.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.09</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127.24</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1499999999999915</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731413005.9706278</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731413006.358205</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413005.9706278.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413006.358205.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.27</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.12</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1499999999999915</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731413007.3757436</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731413008.2640843</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413007.3757436.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413008.2640843.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.38</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731413009.7796721</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731413009.7796721.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731413009.7796721.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.4</v>
       </c>
-      <c r="J21" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>127.95</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731413013.0887196</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731413014.0442317</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413013.0887196.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413014.0442317.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6317</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6329.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731413015.8694353</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731413016.8303087</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413015.8694353.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413016.8303087.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6311</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6317</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731413017.2289798</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731413017.7987587</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413017.2289798.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413017.7987587.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6301</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6309.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731413020.313278</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731413021.8621254</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413020.313278.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413021.8621254.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6300.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6304</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731413022.1259773</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731413024.2419891</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413022.1259773.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413024.2419891.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6314</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6312</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731413024.7939556</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731413024.9008033</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413024.7939556.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413024.9008033.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6322</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6313</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731413028.3706791</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731413028.4125664</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413028.3706791.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413028.4125664.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>493.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>494.55</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731413030.139844</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731413030.3943505</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413030.139844.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413030.3943505.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>493</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>494.3</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.300000000000011</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731413031.6235943</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731413032.2932794</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413031.6235943.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413032.2932794.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>494.45</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>493.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731413032.6537757</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731413034.5962002</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413032.6537757.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413034.5962002.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>493.05</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>493.15</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.09999999999996589</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731413035.9831047</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731413036.8464086</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413035.9831047.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413036.8464086.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>493.85</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>493.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731413037.5794356</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731413037.5794356.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731413037.5794356.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>494.3</v>
       </c>
-      <c r="J33" t="n">
-        <v>494.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>494.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731413039.4039435</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731413041.307521</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413039.4039435.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413041.307521.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>223.86</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>223.61</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731413041.8010921</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731413042.5207982</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413041.8010921.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413042.5207982.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>223.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>223.66</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731413042.6253982</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731413043.820032</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413042.6253982.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413043.820032.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>223.35</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>223.55</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731413044.285437</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731413046.53233</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413044.285437.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413046.53233.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>223.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>223.78</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731413046.8273907</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731413047.5931292</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413046.8273907.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413047.5931292.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>223.57</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>223.79</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731413047.6459527</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731413047.6459527.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731413047.6459527.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>223.8</v>
       </c>
-      <c r="J39" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
+        <v>223.79</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.01000000000001933</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2314,195 +2669,231 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731413051.9010117</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731413052.0464332</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413051.9010117.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413052.0464332.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1026.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1027.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731413052.8061783</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731413055.9677138</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413052.8061783.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413055.9677138.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1026.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1018.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-8.000000000000114</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731413056.58941</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731413057.1936283</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413056.58941.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413057.1936283.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1020</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1017</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731413057.754184</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731413059.619728</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413057.754184.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413059.619728.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1015</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1015</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2510,1437 +2901,1707 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731413059.820426</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731413059.820426.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731413059.820426.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1016.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>1016.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>1021</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-4.600000000000023</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731413062.9544585</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731413064.1009717</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413062.9544585.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413064.1009717.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.124</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.122</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.002000000000000668</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731413064.174974</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731413066.6066365</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413064.174974.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413066.6066365.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.106</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.111</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.005000000000000782</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731413066.8329535</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731413068.2746973</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413066.8329535.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413068.2746973.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.124</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.113</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.01100000000000101</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731413069.3585675</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731413071.4348283</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413069.3585675.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413071.4348283.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.092</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.093</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731413073.568247</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731413073.8351953</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413073.568247.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413073.8351953.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.099</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>12.086</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.0129999999999999</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731413074.7047975</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731413075.7754395</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413074.7047975.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413075.7754395.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>125.06</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>125.14</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731413077.8190186</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731413078.1339233</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413077.8190186.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413078.1339233.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>124.84</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>125.02</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731413078.7282288</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731413079.2011886</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413078.7282288.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413079.2011886.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>124.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>124.8</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731413081.0768054</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731413083.7013047</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413081.0768054.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413083.7013047.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>124.94</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>125.36</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.4200000000000017</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731413084.6955774</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731413084.6955774.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731413084.6955774.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>126.02</v>
       </c>
-      <c r="J54" t="n">
-        <v>126.02</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.079999999999998</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731413086.7939289</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731413087.7550447</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413086.7939289.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413087.7550447.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>161.3</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>161.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731413088.2317557</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731413090.0973985</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413088.2317557.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413090.0973985.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>162</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>161.68</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731413090.3006237</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731413090.4664836</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413090.3006237.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413090.4664836.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>161.54</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>161.8</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731413090.997306</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731413093.392438</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413090.997306.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413093.392438.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>162</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>162.12</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731413095.876181</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731413097.0366538</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413095.876181.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413097.0366538.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>162.42</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>162.68</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.2600000000000193</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731413099.0692394</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731413100.8741555</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413099.0692394.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413100.8741555.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>49.715</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>49.755</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731413101.4758656</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731413101.8380988</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413101.4758656.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413101.8380988.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>49.78</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>49.705</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731413103.2831538</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731413103.4653447</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413103.2831538.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413103.4653447.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>49.66</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>49.725</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.06500000000000483</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731413104.5210364</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731413105.1646612</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413104.5210364.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413105.1646612.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>49.77</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>49.715</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.05499999999999972</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731413106.0636525</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731413107.742341</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413106.0636525.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413107.742341.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>49.685</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>49.695</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731413108.3246086</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731413108.3246086.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731413108.3246086.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>49.71</v>
       </c>
-      <c r="J65" t="n">
-        <v>49.71</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>49.775</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.06499999999999773</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731413110.5936651</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731413112.2469842</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413110.5936651.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413112.2469842.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1385.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1383.2</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731413113.7085323</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731413115.0961335</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413113.7085323.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413115.0961335.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1376.2</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1377.2</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731413115.6864712</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731413117.0828073</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413115.6864712.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413117.0828073.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1376.2</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731413118.9768865</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731413118.9768865.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731413118.9768865.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J69" t="n">
-        <v>1380.6</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>1387.8</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-7.200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731413123.7603064</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731413124.4841766</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413123.7603064.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413124.4841766.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>58.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>58.81</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731413125.778628</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731413127.1725101</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413125.778628.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413127.1725101.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>58.79</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>58.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731413127.6967733</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731413128.670982</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413127.6967733.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413128.670982.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>58.85</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>58.8</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731413129.2939134</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731413132.5125625</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413129.2939134.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413132.5125625.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>58.68</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>58.68</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3948,890 +4609,1061 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731413138.611215</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731413140.3199809</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413138.611215.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413140.3199809.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>98.64</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.07000000000000739</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731413140.868361</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731413143.4644582</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413140.868361.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413143.4644582.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>98.7</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>98.87</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.1700000000000017</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731413145.1381195</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731413145.1381195.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731413145.1381195.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>99.04000000000001</v>
       </c>
-      <c r="J76" t="n">
-        <v>99.04000000000001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731413147.8703113</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731413150.9475002</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413147.8703113.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413150.9475002.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>54.7</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>54.63</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731413152.396591</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731413156.4715211</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413152.396591.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413156.4715211.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>54.41</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>54.42</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731413156.5182157</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731413156.5182157.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731413156.5182157.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>54.5</v>
       </c>
-      <c r="J79" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
+      <c r="L79" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.5799999999999983</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731413160.8954098</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731413162.5910103</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413160.8954098.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413162.5910103.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>152.8</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>152.66</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731413162.9524796</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731413163.670565</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413162.9524796.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413163.670565.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>152.5</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>152.9</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731413163.88656</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731413166.0848043</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413163.88656.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413166.0848043.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>152.46</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>152.52</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731413166.1991699</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731413166.4499505</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413166.1991699.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413166.4499505.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>152.6</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>152.3</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731413167.9565213</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731413167.9565213.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731413167.9565213.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>153.12</v>
       </c>
-      <c r="J84" t="n">
-        <v>153.12</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
+      <c r="L84" t="n">
+        <v>153.28</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731413168.4935484</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731413172.7303178</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731413168.4935484.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731413172.7303178.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.3025</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.306</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.003500000000000003</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731413172.8025985</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731413172.8025985.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731413172.8025985.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.3062</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.3062</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
+      <c r="L86" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0006000000000000449</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731413174.0997686</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731413176.0226245</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413174.0997686.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413176.0226245.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>19.759</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>19.799</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731413176.3995392</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731413176.8384352</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413176.3995392.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413176.8384352.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>19.809</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>19.764</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731413178.0625498</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731413178.4419394</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413178.0625498.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413178.4419394.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>19.728</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>19.752</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.02399999999999736</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731413182.3900547</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731413182.3900547.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731413182.3900547.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>19.885</v>
       </c>
-      <c r="J90" t="n">
-        <v>19.885</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.0849999999999973</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731413188.896063</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731413189.3393989</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413188.896063.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413189.3393989.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>675.45</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>676.1</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731413189.7344048</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731413190.7435064</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413189.7344048.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413190.7435064.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>675.7</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>675.7</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4839,376 +5671,448 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731413191.179366</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731413191.4598005</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413191.179366.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413191.4598005.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>677.35</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>675.6</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731413193.1638522</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731413194.4633372</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413193.1638522.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413194.4633372.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>674.1</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>673.65</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731413195.033449</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731413195.033449.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731413195.033449.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>676.2</v>
       </c>
-      <c r="J95" t="n">
-        <v>676.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
+      <c r="L95" t="n">
+        <v>674.9</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.300000000000068</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731413198.0292227</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731413198.4697146</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413198.0292227.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413198.4697146.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>149.45</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>149.17</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731413199.6896296</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731413202.4073997</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413199.6896296.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413202.4073997.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>148.77</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>148.83</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731413203.2550404</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731413205.8080368</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413203.2550404.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413205.8080368.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>148.54</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>148.46</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731413205.8827572</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731413206.0520666</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413205.8827572.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413206.0520666.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>148.59</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>148.38</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731413206.7328084</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731413206.7328084.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731413206.7328084.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>148.58</v>
       </c>
-      <c r="J100" t="n">
-        <v>148.58</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
+      <c r="L100" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +6126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5251,6 +6155,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5259,13 +6173,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.510000000000048</v>
+        <v>1.290000000000077</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1510000000000048</v>
+        <v>0.1290000000000077</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -5283,6 +6203,12 @@
       <c r="D3" t="n">
         <v>6.916666666666667</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5291,13 +6217,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2450000000000045</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04083333333333409</v>
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -5307,13 +6239,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.03000000000003</v>
+        <v>1.040000000000049</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1716666666666716</v>
+        <v>0.1733333333333415</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -5323,13 +6261,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.649999999999977</v>
+        <v>3.449999999999989</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6083333333333295</v>
+        <v>0.5749999999999981</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -5339,13 +6283,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4700000000000273</v>
+        <v>0.03000000000002956</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09400000000000545</v>
+        <v>0.006000000000005912</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5355,13 +6305,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9000000000000057</v>
+        <v>0.7400000000000091</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1800000000000011</v>
+        <v>0.1480000000000018</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -5379,6 +6335,12 @@
       <c r="D9" t="n">
         <v>0.006400000000000361</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5387,13 +6349,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.3499999999999801</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1799999999999954</v>
+        <v>0.06999999999999602</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
@@ -5403,13 +6371,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03999999999999204</v>
+        <v>-1.040000000000006</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007999999999998408</v>
+        <v>-0.2080000000000012</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="12">
@@ -5419,13 +6393,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.949999999999932</v>
+        <v>3.25</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3899999999999864</v>
+        <v>0.65</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -5443,6 +6423,12 @@
       <c r="D13" t="n">
         <v>0.1399999999999977</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5451,13 +6437,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.400000000000205</v>
+        <v>-8.000000000000227</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6800000000000409</v>
+        <v>-1.600000000000045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.7799999999999998</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="15">
@@ -5475,6 +6467,12 @@
       <c r="D15" t="n">
         <v>0.1424999999999983</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5483,13 +6481,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1089999999999982</v>
+        <v>0.02400000000000091</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02724999999999955</v>
+        <v>0.006000000000000227</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
@@ -5507,6 +6511,12 @@
       <c r="D17" t="n">
         <v>0.03749999999999964</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5515,13 +6525,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-5.200000000000045</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>-1.300000000000011</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="19">
@@ -5531,13 +6547,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05999999999999517</v>
+        <v>-0.6399999999999935</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01999999999999839</v>
+        <v>-0.2133333333333312</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="20">
@@ -5547,13 +6569,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.09999999999999432</v>
+        <v>-0.4199999999999875</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03333333333333144</v>
+        <v>-0.1399999999999958</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="21">
@@ -5563,13 +6591,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.003500000000000003</v>
+        <v>0.004100000000000048</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001750000000000002</v>
+        <v>0.002050000000000024</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="22">
@@ -5585,6 +6619,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
